--- a/Plan-test-acceptation.xlsx
+++ b/Plan-test-acceptation.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Clic sur le bouton ajouter au panier sur la page Produit</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajoute le produit au panier, il est visible dans la page panier</t>
+    <t xml:space="preserve">Ajoute le produit au panier et redirige vers la page accueil, il est visible dans la page panier</t>
   </si>
   <si>
     <t xml:space="preserve">Ajouter un produit identique à un produit du panier</t>
@@ -118,13 +118,13 @@
     <t xml:space="preserve">Valeurs testées / messages d'erreurs en cas d'erreurs / Envoi du formulaire impossible en cas d'erreurs</t>
   </si>
   <si>
-    <t xml:space="preserve">Envoi du formulaire avec un panier vide</t>
+    <t xml:space="preserve">Envoi du formulaire</t>
   </si>
   <si>
     <t xml:space="preserve">J'envoie mon formulaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Message d'erreur en cas de panier vide sous le bouton Envoyer</t>
+    <t xml:space="preserve">Envoie le formulaire et redirige vers la page Commande avec le numéro de commande / Message d'erreur en cas de panier vide sous le bouton Envoyer</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,12 +178,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Montserrat"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -345,7 +339,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -399,14 +393,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,15 +492,15 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="58.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="57.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="64.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="58.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="57.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="64.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="14.43"/>
   </cols>
   <sheetData>
@@ -601,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
@@ -625,7 +611,7 @@
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -639,10 +625,10 @@
       <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -679,7 +665,7 @@
       <c r="C10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -703,14 +689,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -798,11 +784,11 @@
       <c r="E23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
